--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
   <si>
     <t>Table</t>
   </si>
@@ -276,6 +276,80 @@
   </si>
   <si>
     <t>OrderDetail_Update</t>
+  </si>
+  <si>
+    <t>Delete Order</t>
+  </si>
+  <si>
+    <t>Orders_Delete</t>
+  </si>
+  <si>
+    <t>Order_Id</t>
+  </si>
+  <si>
+    <t>Delete OrderDetail</t>
+  </si>
+  <si>
+    <t>OrderDetail_Delete</t>
+  </si>
+  <si>
+    <t>Store Reference</t>
+  </si>
+  <si>
+    <t>Book_ISBN,Copy_Id(if)</t>
+  </si>
+  <si>
+    <t>action delete is update field isDeleted = 1
+check Cop_Status = 1 thì mới có thể Delete</t>
+  </si>
+  <si>
+    <t>đối với kiễu chuỗi defaul value  = '' or value = null
+đối với kiểu số default value = null or value = -1
+đối với kiểu ngày tháng thành truyền vào là chuỗi và nhận là chuỗi - làm điều kiện search sẽ dễ hơn</t>
+  </si>
+  <si>
+    <t>Order_Id(if), Mem_Id(if), Order_CreateDate(if),Order_DueDate(if)</t>
+  </si>
+  <si>
+    <t>action delete is update field isDeleted = 1
+Check count(OrderDetail) by ISBN If  = 0 then Call Delete Order</t>
+  </si>
+  <si>
+    <t>Fines</t>
+  </si>
+  <si>
+    <t>Insert Fine</t>
+  </si>
+  <si>
+    <t>Update Fine</t>
+  </si>
+  <si>
+    <t>Paid Fine</t>
+  </si>
+  <si>
+    <t>action delete is update field isDeleted = 1
+Check count(OrderDetail_Status =0) by ISBN if = 0 Call OrderDetail_Delete (cancel all detail). If not cancel action</t>
+  </si>
+  <si>
+    <t>Call OrderDetails_Insert</t>
+  </si>
+  <si>
+    <t>Order_Id,Mem_Id,Order_DueDate</t>
+  </si>
+  <si>
+    <t>Delete member</t>
+  </si>
+  <si>
+    <t>Delete Staff</t>
+  </si>
+  <si>
+    <t>Members_Delete</t>
+  </si>
+  <si>
+    <t>action delete is update field isDeleted = 1</t>
+  </si>
+  <si>
+    <t>Staffs_Delete</t>
   </si>
   <si>
     <r>
@@ -295,67 +369,8 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-Amount is number of book will be loop.it will call function returnMaxId. After that Book_Id generated = Book_ISBN + (max number  + (3 letter number  + 1)) (append String)</t>
+</t>
     </r>
-  </si>
-  <si>
-    <t>Delete Order</t>
-  </si>
-  <si>
-    <t>Orders_Delete</t>
-  </si>
-  <si>
-    <t>Order_Id</t>
-  </si>
-  <si>
-    <t>Delete OrderDetail</t>
-  </si>
-  <si>
-    <t>OrderDetail_Delete</t>
-  </si>
-  <si>
-    <t>Store Reference</t>
-  </si>
-  <si>
-    <t>Book_ISBN,Copy_Id(if)</t>
-  </si>
-  <si>
-    <t>action delete is update field isDeleted = 1
-check Cop_Status = 1 thì mới có thể Delete</t>
-  </si>
-  <si>
-    <t>đối với kiễu chuỗi defaul value  = '' or value = null
-đối với kiểu số default value = null or value = -1
-đối với kiểu ngày tháng thành truyền vào là chuỗi và nhận là chuỗi - làm điều kiện search sẽ dễ hơn</t>
-  </si>
-  <si>
-    <t>Order_Id(if), Mem_Id(if), Order_CreateDate(if),Order_DueDate(if)</t>
-  </si>
-  <si>
-    <t>action delete is update field isDeleted = 1
-Check count(OrderDetail) by ISBN If  = 0 then Call Delete Order</t>
-  </si>
-  <si>
-    <t>Fines</t>
-  </si>
-  <si>
-    <t>Insert Fine</t>
-  </si>
-  <si>
-    <t>Update Fine</t>
-  </si>
-  <si>
-    <t>Paid Fine</t>
-  </si>
-  <si>
-    <t>action delete is update field isDeleted = 1
-Check count(OrderDetail_Status =0) by ISBN if = 0 Call OrderDetail_Delete (cancel all detail). If not cancel action</t>
-  </si>
-  <si>
-    <t>Call OrderDetails_Insert</t>
-  </si>
-  <si>
-    <t>Order_Id,Mem_Id,Order_DueDate</t>
   </si>
 </sst>
 </file>
@@ -390,12 +405,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -425,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -441,6 +462,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -765,7 +789,7 @@
     <col min="9" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -776,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1</v>
@@ -788,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -802,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
@@ -816,380 +840,422 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
+      <c r="G6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+      <c r="G12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="6" t="s">
+      <c r="G13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
+      <c r="G16" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>59</v>
+      <c r="G17" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="6" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+    <row r="22" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C21" s="6" t="s">
+      <c r="G22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="G23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+      <c r="F26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C29" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="7" t="s">
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="6" t="s">
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1310,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -746,17 +746,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -766,12 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -784,6 +772,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1109,652 +1109,658 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="s">
+      <c r="G2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17" t="s">
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="13"/>
+      <c r="G6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="13"/>
+      <c r="G7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="G11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+      <c r="G12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="G13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="18" t="s">
+      <c r="G14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="20">
         <v>4</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="13"/>
+      <c r="G17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>5</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="18" t="s">
+      <c r="G20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="s">
+    <row r="21" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="13"/>
+      <c r="F21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="18" t="s">
+      <c r="G21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
+    <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="G22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
+    <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>6</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="20">
+        <v>6</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="G24" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
         <v>7</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17" t="s">
+      <c r="G26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="18" t="s">
+      <c r="G27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17" t="s">
+    <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" spans="1:8" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="18" t="s">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="18" t="s">
+      <c r="H29" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="20">
         <v>8</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="13"/>
+      <c r="G30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="13" t="s">
+      <c r="G31" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B30:B32"/>
@@ -1765,12 +1771,6 @@
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="rule" sheetId="2" r:id="rId2"/>
+    <sheet name="Phân chia" sheetId="3" r:id="rId2"/>
+    <sheet name="rule" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
   <si>
     <t>Table</t>
   </si>
@@ -654,6 +655,15 @@
   </si>
   <si>
     <t>IRBookDetail_Id,Fine_Amount</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>anh Uy</t>
+  </si>
+  <si>
+    <t>trunghth</t>
   </si>
 </sst>
 </file>
@@ -773,10 +783,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1132,10 +1142,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1154,8 +1164,8 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1172,8 +1182,8 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="13" t="s">
         <v>73</v>
       </c>
@@ -1192,8 +1202,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
@@ -1324,10 +1334,10 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1346,8 +1356,8 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -1364,8 +1374,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="13" t="s">
         <v>77</v>
       </c>
@@ -1384,8 +1394,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
@@ -1486,10 +1496,10 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>5</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -1510,8 +1520,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
@@ -1530,8 +1540,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="13" t="s">
         <v>84</v>
       </c>
@@ -1550,8 +1560,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
@@ -1612,10 +1622,10 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="17">
         <v>7</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1634,8 +1644,8 @@
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="13" t="s">
         <v>120</v>
       </c>
@@ -1656,8 +1666,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="13" t="s">
         <v>95</v>
       </c>
@@ -1674,8 +1684,8 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="14" t="s">
         <v>106</v>
       </c>
@@ -1755,12 +1765,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B30:B32"/>
@@ -1771,6 +1775,12 @@
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1778,6 +1788,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Phân chia" sheetId="3" r:id="rId2"/>
     <sheet name="rule" sheetId="2" r:id="rId3"/>
+    <sheet name="must edit" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="136">
   <si>
     <t>Table</t>
   </si>
@@ -664,6 +665,24 @@
   </si>
   <si>
     <t>trunghth</t>
+  </si>
+  <si>
+    <t>issue form</t>
+  </si>
+  <si>
+    <t>member must have member no</t>
+  </si>
+  <si>
+    <t>reset label change to cancel</t>
+  </si>
+  <si>
+    <t>return form</t>
+  </si>
+  <si>
+    <t>remove number of book issued</t>
+  </si>
+  <si>
+    <t>no need</t>
   </si>
 </sst>
 </file>
@@ -783,10 +802,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1142,10 +1161,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1164,8 +1183,8 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1182,8 +1201,8 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="13" t="s">
         <v>73</v>
       </c>
@@ -1202,8 +1221,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
@@ -1334,10 +1353,10 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="18">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1356,8 +1375,8 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -1374,8 +1393,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="13" t="s">
         <v>77</v>
       </c>
@@ -1394,8 +1413,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
@@ -1496,10 +1515,10 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="18">
         <v>5</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -1520,8 +1539,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
@@ -1540,8 +1559,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="13" t="s">
         <v>84</v>
       </c>
@@ -1560,8 +1579,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="13" t="s">
         <v>54</v>
       </c>
@@ -1622,10 +1641,10 @@
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="18">
         <v>7</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1644,8 +1663,8 @@
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="13" t="s">
         <v>120</v>
       </c>
@@ -1666,8 +1685,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="13" t="s">
         <v>95</v>
       </c>
@@ -1684,8 +1703,8 @@
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="14" t="s">
         <v>106</v>
       </c>
@@ -1765,6 +1784,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="B30:B32"/>
@@ -1775,12 +1800,6 @@
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1791,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1921,4 +1940,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="138">
   <si>
     <t>Table</t>
   </si>
@@ -683,6 +683,12 @@
   </si>
   <si>
     <t>no need</t>
+  </si>
+  <si>
+    <t>getCategoryListWithBookNumber</t>
+  </si>
+  <si>
+    <t>Get Category List With Book Number</t>
   </si>
 </sst>
 </file>
@@ -802,10 +808,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -874,7 +880,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,7 +915,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1118,17 +1124,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="60" style="7" customWidth="1"/>
@@ -1161,10 +1170,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1183,8 +1192,8 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1201,8 +1210,8 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="13" t="s">
         <v>73</v>
       </c>
@@ -1221,8 +1230,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
@@ -1353,10 +1362,10 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -1375,8 +1384,8 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="13" t="s">
         <v>30</v>
       </c>
@@ -1393,8 +1402,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="13" t="s">
         <v>77</v>
       </c>
@@ -1413,393 +1422,409 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="13" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
         <v>4</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B17" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="G17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="19"/>
       <c r="C18" s="10" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>81</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="19"/>
       <c r="C19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>5</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="14" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="16" t="s">
-        <v>119</v>
+      <c r="H22" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="13" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>6</v>
-      </c>
-      <c r="B24" s="19" t="s">
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>6</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="11" t="s">
+      <c r="G25" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="10" t="s">
+    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>7</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="13" t="s">
+      <c r="G27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F28" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="14" t="s">
+      <c r="G28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="13" t="s">
+    <row r="29" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="14" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
         <v>8</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B31" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>101</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="11" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="19"/>
       <c r="C32" s="10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1946,7 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="148">
   <si>
     <t>Table</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Staff_Id</t>
   </si>
   <si>
-    <t>Get member by parameters</t>
-  </si>
-  <si>
     <t>Get Staff by parameters</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>Insert Staff</t>
-  </si>
-  <si>
-    <t>Mem_Id(if),Mem_Email(if),Mem_Firstname(if)</t>
   </si>
   <si>
     <t>Staff_Id(if),Staff_Email(if),Staff_Firstname(if),Staff_Login(if)</t>
@@ -689,6 +683,42 @@
   </si>
   <si>
     <t>Get Category List With Book Number</t>
+  </si>
+  <si>
+    <t>Get member by parameters (trunghth)</t>
+  </si>
+  <si>
+    <t>Members_GetIRCountInformation</t>
+  </si>
+  <si>
+    <t>Mem_No</t>
+  </si>
+  <si>
+    <t>Mem_No(if),Mem_name(if),Mem_Email(if),Mem_Phone(if)</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Books_getListBookByFilter</t>
+  </si>
+  <si>
+    <t>Get Book by parameters Filter Issue Form (trunghth)</t>
+  </si>
+  <si>
+    <t>Get Count Issued Book By Member (trunghth)</t>
+  </si>
+  <si>
+    <t>Book_ISBN(if),Book_Title(if),Cat_Id(if)</t>
+  </si>
+  <si>
+    <t>Copies_getLastestIsFree</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Get Copy for issuing which is free-random (trunghth)</t>
   </si>
 </sst>
 </file>
@@ -764,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -814,10 +844,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -880,7 +943,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -915,7 +978,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,20 +1187,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="60" style="7" customWidth="1"/>
@@ -1157,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
@@ -1170,10 +1233,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1184,7 +1247,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>6</v>
@@ -1192,8 +1255,8 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1202,7 +1265,7 @@
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>6</v>
@@ -1210,13 +1273,13 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
@@ -1226,175 +1289,175 @@
         <v>6</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19"/>
       <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19"/>
+    <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="10" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="10" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="10" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>6</v>
@@ -1402,429 +1465,483 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="13" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="13" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14"/>
+        <v>6</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="13" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="F16" s="14"/>
       <c r="G16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
         <v>4</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="F18" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="19"/>
+      <c r="H18" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="F20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>5</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>5</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="D23" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="14" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
+      <c r="H23" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="13" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
         <v>6</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="H24" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H25" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>6</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>7</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11" t="s">
+      <c r="C30" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>7</v>
-      </c>
-      <c r="B27" s="18" t="s">
+      <c r="D30" s="13" t="s">
         <v>91</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>107</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="14" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>8</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="19"/>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>8</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="10" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1849,15 +1966,15 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -1865,47 +1982,47 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,13 +2070,13 @@
     </row>
     <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1982,26 +2099,26 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
         <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
   <si>
     <t>Table</t>
   </si>
@@ -719,6 +719,12 @@
   </si>
   <si>
     <t>Get Copy for issuing which is free-random (trunghth)</t>
+  </si>
+  <si>
+    <t>Books_getByISBN</t>
+  </si>
+  <si>
+    <t>Get Book By ISBN use view table (trunghth)</t>
   </si>
 </sst>
 </file>
@@ -844,43 +850,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,13 +1193,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1233,10 +1239,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1255,8 +1261,8 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1273,8 +1279,8 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="13" t="s">
         <v>71</v>
       </c>
@@ -1292,47 +1298,47 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="23" t="s">
+    <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="19" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="19" t="s">
         <v>140</v>
       </c>
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="31">
         <v>2</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1351,8 +1357,8 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
@@ -1369,8 +1375,8 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1387,8 +1393,8 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="10" t="s">
         <v>73</v>
       </c>
@@ -1407,8 +1413,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="10" t="s">
         <v>34</v>
       </c>
@@ -1425,8 +1431,8 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="10" t="s">
         <v>62</v>
       </c>
@@ -1443,10 +1449,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="28">
         <v>3</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1465,8 +1471,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
@@ -1483,8 +1489,8 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="13" t="s">
         <v>75</v>
       </c>
@@ -1503,8 +1509,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="13" t="s">
         <v>135</v>
       </c>
@@ -1519,8 +1525,8 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="13" t="s">
         <v>29</v>
       </c>
@@ -1537,10 +1543,10 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="31">
         <v>4</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1563,8 +1569,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
@@ -1581,8 +1587,8 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="10" t="s">
         <v>77</v>
       </c>
@@ -1603,8 +1609,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="10" t="s">
         <v>43</v>
       </c>
@@ -1620,328 +1626,346 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
+    <row r="22" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D23" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G23" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
         <v>5</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B24" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="19"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>117</v>
+      <c r="H25" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="13" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G27" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="23" t="s">
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D28" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="16" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G28" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
         <v>6</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B29" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="10" t="s">
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
         <v>7</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B31" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>122</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="13" t="s">
+    <row r="33" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="14" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
         <v>8</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B35" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="11" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="21"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G37" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
   <si>
     <t>Table</t>
   </si>
@@ -679,9 +679,6 @@
     <t>no need</t>
   </si>
   <si>
-    <t>getCategoryListWithBookNumber</t>
-  </si>
-  <si>
     <t>Get Category List With Book Number</t>
   </si>
   <si>
@@ -725,6 +722,21 @@
   </si>
   <si>
     <t>Get Book By ISBN use view table (trunghth)</t>
+  </si>
+  <si>
+    <t>Get Category by Category Name</t>
+  </si>
+  <si>
+    <t>Categories_findCategoryByCateName</t>
+  </si>
+  <si>
+    <t>Cat_Name</t>
+  </si>
+  <si>
+    <t>Dùng kiểm tra tên cate có tồn tại chưa</t>
+  </si>
+  <si>
+    <t>Categories_getCategoryListWithBookNumber</t>
   </si>
 </sst>
 </file>
@@ -877,10 +889,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -949,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,7 +996,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1193,13 +1205,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1219,7 @@
     <col min="1" max="1" width="6.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="47.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="60" style="7" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="6"/>
@@ -1239,10 +1251,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1261,8 +1273,8 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1279,8 +1291,8 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="13" t="s">
         <v>71</v>
       </c>
@@ -1299,17 +1311,17 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -1320,17 +1332,17 @@
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H6" s="16"/>
     </row>
@@ -1449,10 +1461,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="29">
         <v>3</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1471,8 +1483,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
@@ -1489,8 +1501,8 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="13" t="s">
         <v>75</v>
       </c>
@@ -1508,467 +1520,487 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="13" t="s">
+    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="13" t="s">
+      <c r="D16" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="13" t="s">
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
         <v>4</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="11" t="s">
+      <c r="G19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="30"/>
       <c r="C20" s="10" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>79</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="30"/>
       <c r="C21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="24" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="G23" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
         <v>5</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="16" t="s">
-        <v>117</v>
+      <c r="H26" s="14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="13" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="31">
-        <v>6</v>
-      </c>
-      <c r="B29" s="30" t="s">
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>6</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="11" t="s">
+      <c r="G30" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="10" t="s">
+    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
         <v>7</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="13" t="s">
+      <c r="G32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="14" t="s">
+      <c r="G33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="13" t="s">
+    <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>105</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="14" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
         <v>8</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B36" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>99</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="11" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="30"/>
       <c r="C37" s="10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
   <si>
     <t>Table</t>
   </si>
@@ -106,15 +106,9 @@
     <t>Update Category</t>
   </si>
   <si>
-    <t>Get Category by parameters</t>
-  </si>
-  <si>
     <t>Cat_id</t>
   </si>
   <si>
-    <t>Cat_id(if)</t>
-  </si>
-  <si>
     <t>Staffs_GetActiveByParameters</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
   </si>
   <si>
     <t>Categories_Update</t>
-  </si>
-  <si>
-    <t>Categories_GetByParameters</t>
   </si>
   <si>
     <t>Staffs_Login</t>
@@ -724,19 +715,16 @@
     <t>Get Book By ISBN use view table (trunghth)</t>
   </si>
   <si>
-    <t>Get Category by Category Name</t>
-  </si>
-  <si>
-    <t>Categories_findCategoryByCateName</t>
-  </si>
-  <si>
-    <t>Cat_Name</t>
-  </si>
-  <si>
-    <t>Dùng kiểm tra tên cate có tồn tại chưa</t>
-  </si>
-  <si>
     <t>Categories_getCategoryListWithBookNumber</t>
+  </si>
+  <si>
+    <t>Categories_getCategoryByCateId</t>
+  </si>
+  <si>
+    <t>Cat_Id</t>
+  </si>
+  <si>
+    <t>Get Category By Cate Id</t>
   </si>
 </sst>
 </file>
@@ -785,7 +773,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -808,11 +796,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -872,9 +897,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -889,16 +911,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,13 +1236,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>1</v>
@@ -1251,7 +1282,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -1265,7 +1296,7 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>6</v>
@@ -1273,7 +1304,7 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="28"/>
       <c r="C3" s="13" t="s">
         <v>12</v>
@@ -1283,7 +1314,7 @@
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>6</v>
@@ -1291,13 +1322,13 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="28"/>
       <c r="C4" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="14" t="s">
@@ -1307,21 +1338,21 @@
         <v>6</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="28"/>
       <c r="C5" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>0</v>
@@ -1332,25 +1363,25 @@
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>2</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1361,7 +1392,7 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>6</v>
@@ -1369,8 +1400,8 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +1410,7 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>6</v>
@@ -1387,13 +1418,13 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11" t="s">
@@ -1405,13 +1436,13 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11" t="s">
@@ -1421,21 +1452,21 @@
         <v>6</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>0</v>
@@ -1443,17 +1474,17 @@
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>6</v>
@@ -1461,7 +1492,7 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="27">
         <v>3</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -1471,11 +1502,11 @@
         <v>27</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>6</v>
@@ -1483,17 +1514,17 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>6</v>
@@ -1501,33 +1532,33 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="16"/>
@@ -1537,467 +1568,447 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="28"/>
       <c r="C17" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>4</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="C18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>4</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>5</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="C24" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="10" t="s">
+      <c r="D24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D25" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
-        <v>5</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
       <c r="B26" s="28"/>
       <c r="C26" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="14" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>108</v>
+      <c r="H26" s="16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="28"/>
       <c r="C27" s="13" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>6</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="13" t="s">
+      <c r="G29" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="31">
-        <v>6</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>7</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="11" t="s">
+      <c r="C31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
-        <v>7</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14" t="s">
-        <v>121</v>
-      </c>
       <c r="G32" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="H32" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
       <c r="B33" s="28"/>
       <c r="C33" s="13" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="G33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="13" t="s">
-        <v>93</v>
+      <c r="C34" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="14" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14" t="s">
+      <c r="H34" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="30">
+        <v>8</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
-        <v>8</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="11" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="30"/>
+      <c r="H36" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H38" s="11"/>
+      <c r="H37" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B18:B23"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2022,7 +2033,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2030,7 +2041,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2038,47 +2049,47 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2126,13 +2137,13 @@
     </row>
     <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2155,26 +2166,26 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -13,11 +13,12 @@
     <sheet name="must edit" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="151">
   <si>
     <t>Table</t>
   </si>
@@ -725,6 +726,9 @@
   </si>
   <si>
     <t>Get Category By Cate Id</t>
+  </si>
+  <si>
+    <t>action lock is update field isDeleted = 1</t>
   </si>
 </sst>
 </file>
@@ -911,10 +915,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,10 +1243,10 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="G12" activeCellId="2" sqref="D12 F12 G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1282,68 +1286,68 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="14"/>
+      <c r="G2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="14"/>
+      <c r="G3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>104</v>
+      <c r="G4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="19" t="s">
         <v>132</v>
       </c>
@@ -1384,17 +1388,17 @@
       <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="11"/>
@@ -1402,17 +1406,17 @@
     <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="22" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="11"/>
@@ -1438,21 +1442,21 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="22" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>104</v>
+      <c r="G10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1479,23 +1483,23 @@
       <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="22" t="s">
         <v>60</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="28">
         <v>3</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1514,8 +1518,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
@@ -1532,8 +1536,8 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="13" t="s">
         <v>72</v>
       </c>
@@ -1552,8 +1556,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="19" t="s">
         <v>131</v>
       </c>
@@ -1568,8 +1572,8 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="19" t="s">
         <v>149</v>
       </c>
@@ -1706,10 +1710,10 @@
       <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="28">
         <v>5</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1730,8 +1734,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="13" t="s">
         <v>77</v>
       </c>
@@ -1750,8 +1754,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="13" t="s">
         <v>79</v>
       </c>
@@ -1770,8 +1774,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="13" t="s">
         <v>49</v>
       </c>
@@ -1850,10 +1854,10 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="28">
         <v>7</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -1872,8 +1876,8 @@
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="13" t="s">
         <v>115</v>
       </c>
@@ -1894,8 +1898,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="13" t="s">
         <v>90</v>
       </c>
@@ -1912,8 +1916,8 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="14" t="s">
         <v>101</v>
       </c>
@@ -1993,6 +1997,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B35:B37"/>
@@ -2003,12 +2013,6 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B18:B23"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -13,7 +13,6 @@
     <sheet name="must edit" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -735,7 +734,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +758,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -841,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -915,12 +919,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,6 +939,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,7 +1256,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" activeCellId="2" sqref="D12 F12 G12"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1286,13 +1296,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="19" t="s">
@@ -1308,9 +1318,9 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="19" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="35" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -1326,9 +1336,9 @@
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="35" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -1346,8 +1356,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="19" t="s">
         <v>132</v>
       </c>
@@ -1388,7 +1398,7 @@
       <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="34" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="22" t="s">
@@ -1406,7 +1416,7 @@
     <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="29"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -1427,11 +1437,11 @@
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="10" t="s">
@@ -1442,7 +1452,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="34" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="22" t="s">
@@ -1496,10 +1506,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="27">
         <v>3</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1518,8 +1528,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
@@ -1536,8 +1546,8 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="13" t="s">
         <v>72</v>
       </c>
@@ -1556,8 +1566,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="19" t="s">
         <v>131</v>
       </c>
@@ -1572,8 +1582,8 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="19" t="s">
         <v>149</v>
       </c>
@@ -1710,10 +1720,10 @@
       <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <v>5</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1734,8 +1744,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="13" t="s">
         <v>77</v>
       </c>
@@ -1754,8 +1764,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="13" t="s">
         <v>79</v>
       </c>
@@ -1774,8 +1784,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="13" t="s">
         <v>49</v>
       </c>
@@ -1854,10 +1864,10 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>7</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="28" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -1876,8 +1886,8 @@
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="13" t="s">
         <v>115</v>
       </c>
@@ -1898,8 +1908,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="13" t="s">
         <v>90</v>
       </c>
@@ -1916,8 +1926,8 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="14" t="s">
         <v>101</v>
       </c>
@@ -1997,12 +2007,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B35:B37"/>
@@ -2013,6 +2017,12 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B18:B23"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Document/Functions_LMS.xlsx
+++ b/Document/Functions_LMS.xlsx
@@ -919,12 +919,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -939,12 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1256,7 +1256,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1296,13 +1296,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="28" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="19" t="s">
@@ -1318,9 +1318,9 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="35" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -1336,9 +1336,9 @@
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -1356,8 +1356,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="19" t="s">
         <v>132</v>
       </c>
@@ -1392,13 +1392,13 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="32">
         <v>2</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="22" t="s">
@@ -1414,9 +1414,9 @@
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="34" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -1432,8 +1432,8 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1450,9 +1450,9 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="34" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="22" t="s">
@@ -1470,26 +1470,26 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="22" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="10" t="s">
         <v>59</v>
       </c>
@@ -1506,10 +1506,10 @@
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="30">
         <v>3</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -1528,8 +1528,8 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
@@ -1546,8 +1546,8 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="13" t="s">
         <v>72</v>
       </c>
@@ -1566,8 +1566,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="19" t="s">
         <v>131</v>
       </c>
@@ -1582,8 +1582,8 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="19" t="s">
         <v>149</v>
       </c>
@@ -1600,10 +1600,10 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="32">
         <v>4</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1626,8 +1626,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="10" t="s">
         <v>39</v>
       </c>
@@ -1644,8 +1644,8 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="10" t="s">
         <v>74</v>
       </c>
@@ -1666,8 +1666,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="10" t="s">
         <v>40</v>
       </c>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="22" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
-      <c r="B22" s="32"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="22" t="s">
         <v>145</v>
       </c>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="23" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
-      <c r="B23" s="33"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="22" t="s">
         <v>138</v>
       </c>
@@ -1720,10 +1720,10 @@
       <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="30">
         <v>5</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -1744,8 +1744,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="13" t="s">
         <v>77</v>
       </c>
@@ -1764,8 +1764,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="13" t="s">
         <v>79</v>
       </c>
@@ -1784,8 +1784,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="13" t="s">
         <v>49</v>
       </c>
@@ -1820,10 +1820,10 @@
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="A29" s="32">
         <v>6</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="31" t="s">
         <v>80</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -1846,8 +1846,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="29"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="10" t="s">
         <v>82</v>
       </c>
@@ -1864,10 +1864,10 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="30">
         <v>7</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="29" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -1886,8 +1886,8 @@
       <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="13" t="s">
         <v>115</v>
       </c>
@@ -1908,8 +1908,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="13" t="s">
         <v>90</v>
       </c>
@@ -1926,8 +1926,8 @@
       <c r="H33" s="14"/>
     </row>
     <row r="34" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="14" t="s">
         <v>101</v>
       </c>
@@ -1946,10 +1946,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
+      <c r="A35" s="32">
         <v>8</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -1968,8 +1968,8 @@
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="10" t="s">
         <v>106</v>
       </c>
@@ -1988,8 +1988,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="29"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="10" t="s">
         <v>97</v>
       </c>
@@ -2007,6 +2007,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="B35:B37"/>
@@ -2017,12 +2023,6 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B18:B23"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
